--- a/realization_times.xlsx
+++ b/realization_times.xlsx
@@ -5,39 +5,40 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Forschung\EBC0705_BMWi_BF_RokiG_IPBB\Data\AP4_Kernbausteine\AP4.1_Sanierung\Handwerkszeiten\Ergebnisse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\CrafTiMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="4670" windowWidth="19420" windowHeight="10560" activeTab="1"/>
+    <workbookView xWindow="-19310" yWindow="4670" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="Outer Wall" sheetId="3" r:id="rId2"/>
-    <sheet name="F-Roof" sheetId="7" r:id="rId3"/>
-    <sheet name="Window" sheetId="5" r:id="rId4"/>
-    <sheet name="P-Roof" sheetId="6" r:id="rId5"/>
-    <sheet name="Floor" sheetId="8" r:id="rId6"/>
-    <sheet name="Floor Blow-In" sheetId="10" r:id="rId7"/>
-    <sheet name="Solar" sheetId="11" r:id="rId8"/>
-    <sheet name="PV" sheetId="12" r:id="rId9"/>
-    <sheet name="Battery" sheetId="13" r:id="rId10"/>
-    <sheet name="Gas Deinstall." sheetId="14" r:id="rId11"/>
-    <sheet name="Oil Deinstall." sheetId="15" r:id="rId12"/>
-    <sheet name="Radiator" sheetId="16" r:id="rId13"/>
-    <sheet name="Floor Heating" sheetId="9" r:id="rId14"/>
-    <sheet name="Gas" sheetId="17" r:id="rId15"/>
-    <sheet name="Pellet" sheetId="18" r:id="rId16"/>
-    <sheet name="CHP" sheetId="19" r:id="rId17"/>
-    <sheet name="HP Air-Water" sheetId="20" r:id="rId18"/>
-    <sheet name="HP Air-Air" sheetId="21" r:id="rId19"/>
-    <sheet name="HP Sole-Air" sheetId="22" r:id="rId20"/>
-    <sheet name="Geo Probe" sheetId="23" r:id="rId21"/>
-    <sheet name="Geo Col." sheetId="24" r:id="rId22"/>
-    <sheet name="TS" sheetId="25" r:id="rId23"/>
-    <sheet name="Chiller" sheetId="27" r:id="rId24"/>
-    <sheet name="Fuel Cell" sheetId="28" r:id="rId25"/>
-    <sheet name="DH" sheetId="29" r:id="rId26"/>
+    <sheet name="Mean Values" sheetId="30" r:id="rId2"/>
+    <sheet name="Outer Wall" sheetId="3" r:id="rId3"/>
+    <sheet name="P-Roof" sheetId="6" r:id="rId4"/>
+    <sheet name="F-Roof" sheetId="7" r:id="rId5"/>
+    <sheet name="Window" sheetId="5" r:id="rId6"/>
+    <sheet name="Floor" sheetId="8" r:id="rId7"/>
+    <sheet name="Floor Blow-In" sheetId="10" r:id="rId8"/>
+    <sheet name="Solar" sheetId="11" r:id="rId9"/>
+    <sheet name="PV" sheetId="12" r:id="rId10"/>
+    <sheet name="Battery" sheetId="13" r:id="rId11"/>
+    <sheet name="Gas Deinstall." sheetId="14" r:id="rId12"/>
+    <sheet name="Oil Deinstall." sheetId="15" r:id="rId13"/>
+    <sheet name="Radiator" sheetId="16" r:id="rId14"/>
+    <sheet name="Floor Heating" sheetId="9" r:id="rId15"/>
+    <sheet name="Gas" sheetId="17" r:id="rId16"/>
+    <sheet name="Pellet" sheetId="18" r:id="rId17"/>
+    <sheet name="CHP" sheetId="19" r:id="rId18"/>
+    <sheet name="HP Air-Water" sheetId="20" r:id="rId19"/>
+    <sheet name="HP Air-Air" sheetId="21" r:id="rId20"/>
+    <sheet name="HP Sole-Air" sheetId="22" r:id="rId21"/>
+    <sheet name="Geo Probe" sheetId="23" r:id="rId22"/>
+    <sheet name="Geo Col." sheetId="24" r:id="rId23"/>
+    <sheet name="TS" sheetId="25" r:id="rId24"/>
+    <sheet name="Chiller" sheetId="27" r:id="rId25"/>
+    <sheet name="Fuel Cell" sheetId="28" r:id="rId26"/>
+    <sheet name="DH" sheetId="29" r:id="rId27"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="271">
   <si>
     <t>A</t>
   </si>
@@ -755,16 +756,158 @@
   </si>
   <si>
     <t xml:space="preserve">Realization times window replacement </t>
+  </si>
+  <si>
+    <t>Mean Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean values and 95% confidence intervals (CI) for the specific realization times of modernization measures </t>
+  </si>
+  <si>
+    <t>Modernization Measure</t>
+  </si>
+  <si>
+    <t>Insulate exterior wall</t>
+  </si>
+  <si>
+    <t>Insulate flat roof</t>
+  </si>
+  <si>
+    <t>Insulate pitched roof</t>
+  </si>
+  <si>
+    <t>Insulate ground floor</t>
+  </si>
+  <si>
+    <t>Replace windows</t>
+  </si>
+  <si>
+    <t>Deinstall gas boiler (small)</t>
+  </si>
+  <si>
+    <t>Deinstall gas boiler (large)</t>
+  </si>
+  <si>
+    <t>Deinstall oil boiler (small)</t>
+  </si>
+  <si>
+    <t>Deinstall oil boiler (large)</t>
+  </si>
+  <si>
+    <t>Install gas boiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install pellet boiler </t>
+  </si>
+  <si>
+    <t>Install combined heat and power unit</t>
+  </si>
+  <si>
+    <t>Install district heat exchanger</t>
+  </si>
+  <si>
+    <t>Install solar thermal system</t>
+  </si>
+  <si>
+    <t>Install photovoltaic system</t>
+  </si>
+  <si>
+    <t>Install air-to-water heat pump</t>
+  </si>
+  <si>
+    <t>Install geothermal heat pump</t>
+  </si>
+  <si>
+    <t>Install compression chiller</t>
+  </si>
+  <si>
+    <t>Install battery storage</t>
+  </si>
+  <si>
+    <t>Install thermal energy storage (small)</t>
+  </si>
+  <si>
+    <t>Install thermal energy storage (large)</t>
+  </si>
+  <si>
+    <t>Replace radiator</t>
+  </si>
+  <si>
+    <t>Install geothermal collector</t>
+  </si>
+  <si>
+    <t>Install geothermal probe</t>
+  </si>
+  <si>
+    <t>Mean values and 95 % confidence intervals</t>
+  </si>
+  <si>
+    <t>Mean values and 95% confidence intervals (CI) for the specific realization times of modernization measures based on
+the expert interviews</t>
+  </si>
+  <si>
+    <r>
+      <t>CI</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,5 %</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CI</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>97,5 %</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>h/m²</t>
+  </si>
+  <si>
+    <t>h/device</t>
+  </si>
+  <si>
+    <t>h/module</t>
+  </si>
+  <si>
+    <t>h/ probe</t>
+  </si>
+  <si>
+    <t>h/m² collector area</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,6 +981,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -954,7 +1105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -995,6 +1146,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,11 +1203,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1304,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E29"/>
+  <dimension ref="B2:E30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1341,241 +1537,586 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="2"/>
+      <c r="D5" s="24" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="17" t="s">
-        <v>232</v>
-      </c>
+      <c r="D6" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>232</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="17" t="s">
-        <v>121</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="9" t="s">
-        <v>7</v>
+      <c r="B12" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="17" t="s">
-        <v>125</v>
+      <c r="B13" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="17" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="9" t="s">
-        <v>8</v>
+      <c r="B16" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="17" t="s">
-        <v>118</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="17" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="17" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="17" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="17" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="21">
+        <v>44847</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="21">
+        <v>44950</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="21">
+        <v>44979</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="21">
+        <v>44957</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="43">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="21">
+        <v>44966</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="43">
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="21">
+        <v>44981</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="44">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="21">
+        <v>44999</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="44">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="21">
+        <v>44954</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F11" s="43">
+        <v>2.4333333333333331</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3.8000000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="21">
+        <v>44955</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="21">
+        <v>44963</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="21">
+        <v>44960</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="21">
+        <v>44979</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="21">
+        <v>44984</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -1590,26 +2131,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="55.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -1791,7 +2332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -1807,25 +2348,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -2140,7 +2681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -2156,24 +2697,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -2526,7 +3067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -2542,22 +3083,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -2807,7 +3348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -2824,26 +3365,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -2981,7 +3522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -2998,22 +3539,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -3268,288 +3809,6 @@
       </c>
       <c r="E17" s="3">
         <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="2"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:5" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="20">
-        <v>44847</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="20">
-        <v>44950</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" s="3">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="20">
-        <v>44979</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="20">
-        <v>44993</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="20">
-        <v>44993</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="20">
-        <v>44993</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="3">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="20">
-        <v>44847</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="20">
-        <v>44959</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="3">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="20">
-        <v>44960</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E12" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="20">
-        <v>44973</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="3">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="20">
-        <v>44979</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="20">
-        <v>44984</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="20">
-        <v>44993</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E16" s="3">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3572,27 +3831,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
     <col min="3" max="3" width="10.81640625" style="2"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:5" ht="67.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="A1" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -3621,8 +3882,8 @@
       <c r="C4" s="20">
         <v>44847</v>
       </c>
-      <c r="D4" t="s">
-        <v>172</v>
+      <c r="D4" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="E4" s="3">
         <v>26</v>
@@ -3639,10 +3900,10 @@
         <v>44950</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" s="3">
-        <v>34.5</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -3656,10 +3917,10 @@
         <v>44979</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" s="3">
-        <v>48</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -3673,10 +3934,10 @@
         <v>44993</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7" s="3">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3690,27 +3951,27 @@
         <v>44993</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="3">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C9" s="20">
         <v>44993</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E9" s="3">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3724,7 +3985,7 @@
         <v>44847</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E10" s="3">
         <v>80</v>
@@ -3735,33 +3996,33 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" s="20">
-        <v>44984</v>
+        <v>44959</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="20">
+        <v>44960</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="3">
         <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="20">
-        <v>44959</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="3">
-        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -3769,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C13" s="20">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E13" s="3">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -3786,16 +4047,16 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C14" s="20">
-        <v>44971</v>
+        <v>44979</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E14" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -3803,16 +4064,16 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C15" s="20">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E15" s="3">
-        <v>56</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -3820,16 +4081,16 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="20">
-        <v>44982</v>
+        <v>44993</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E16" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3843,6 +4104,286 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" ht="67.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="20">
+        <v>44847</v>
+      </c>
+      <c r="D4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="20">
+        <v>44950</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="3">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="20">
+        <v>44979</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="20">
+        <v>44993</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="20">
+        <v>44993</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="20">
+        <v>44993</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="20">
+        <v>44847</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="20">
+        <v>44984</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="20">
+        <v>44959</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="20">
+        <v>44971</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="20">
+        <v>44971</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="20">
+        <v>44973</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="20">
+        <v>44982</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="3">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -3859,22 +4400,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="76.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -4107,7 +4648,485 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4">
+        <v>1.27</v>
+      </c>
+      <c r="C4">
+        <v>1.39</v>
+      </c>
+      <c r="D4">
+        <v>1.51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.13</v>
+      </c>
+      <c r="D5">
+        <v>0.17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.19</v>
+      </c>
+      <c r="D6">
+        <v>0.24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7">
+        <v>0.4</v>
+      </c>
+      <c r="C7">
+        <v>0.48</v>
+      </c>
+      <c r="D7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8">
+        <v>5.94</v>
+      </c>
+      <c r="C8">
+        <v>6.93</v>
+      </c>
+      <c r="D8">
+        <v>7.89</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D9">
+        <v>23.6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10">
+        <v>22.9</v>
+      </c>
+      <c r="C10">
+        <v>30.1</v>
+      </c>
+      <c r="D10">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11">
+        <v>28.8</v>
+      </c>
+      <c r="C11">
+        <v>36.9</v>
+      </c>
+      <c r="D11">
+        <v>46.9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12">
+        <v>37.5</v>
+      </c>
+      <c r="C12">
+        <v>47.4</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13">
+        <v>32.4</v>
+      </c>
+      <c r="C13">
+        <v>43.3</v>
+      </c>
+      <c r="D13">
+        <v>54.3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14">
+        <v>86.8</v>
+      </c>
+      <c r="C14">
+        <v>110</v>
+      </c>
+      <c r="D14">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15">
+        <v>52.1</v>
+      </c>
+      <c r="C15">
+        <v>80.7</v>
+      </c>
+      <c r="D15">
+        <v>125.2</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16">
+        <v>25.6</v>
+      </c>
+      <c r="C16">
+        <v>44.3</v>
+      </c>
+      <c r="D16">
+        <v>69.8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="C17">
+        <v>12.3</v>
+      </c>
+      <c r="D17">
+        <v>16.7</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18">
+        <v>15.6</v>
+      </c>
+      <c r="C18">
+        <v>23.3</v>
+      </c>
+      <c r="D18">
+        <v>31.2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="C19">
+        <v>56.8</v>
+      </c>
+      <c r="D19">
+        <v>79.3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20">
+        <v>34.4</v>
+      </c>
+      <c r="C20">
+        <v>53.2</v>
+      </c>
+      <c r="D20">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>58.7</v>
+      </c>
+      <c r="D21">
+        <v>86</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22">
+        <v>1.6</v>
+      </c>
+      <c r="C22">
+        <v>3.95</v>
+      </c>
+      <c r="D22">
+        <v>7.1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D23">
+        <v>21.6</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24">
+        <v>27.2</v>
+      </c>
+      <c r="C24">
+        <v>33.6</v>
+      </c>
+      <c r="D24">
+        <v>41.6</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25">
+        <v>2.27</v>
+      </c>
+      <c r="C25">
+        <v>3.2</v>
+      </c>
+      <c r="D25">
+        <v>4.08</v>
+      </c>
+      <c r="E25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26">
+        <v>0.25</v>
+      </c>
+      <c r="C26">
+        <v>0.39</v>
+      </c>
+      <c r="D26">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27">
+        <v>67.5</v>
+      </c>
+      <c r="C27">
+        <v>83.4</v>
+      </c>
+      <c r="D27">
+        <v>100.4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1:B2">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B2">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -4124,22 +5143,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -4270,1161 +5289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="2"/>
-    <col min="3" max="3" width="10.81640625" style="2"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.26953125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="20">
-        <v>44949</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.91249999999999998</v>
-      </c>
-      <c r="F4" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G4">
-        <v>1.2149999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="20">
-        <v>44957</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.165</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G5">
-        <v>2.39</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="20">
-        <v>44981</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2.1524999999999999</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2.2350000000000003</v>
-      </c>
-      <c r="G6">
-        <v>2.3174999999999999</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="20">
-        <v>44955</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.675</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="20">
-        <v>44961</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="20">
-        <v>44963</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="G9">
-        <v>1.55</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="20">
-        <v>44963</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="20">
-        <v>44963</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="20">
-        <v>44949</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="20">
-        <v>44960</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="20">
-        <v>44968</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="G14">
-        <v>1.8</v>
-      </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="20">
-        <v>44971</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="20">
-        <v>44954</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G16">
-        <v>2.4</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="20">
-        <v>44954</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G17">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="20">
-        <v>44955</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1.4449999999999998</v>
-      </c>
-      <c r="G18">
-        <v>0.96</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="20">
-        <v>44957</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="20">
-        <v>44959</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1.125</v>
-      </c>
-      <c r="G20">
-        <v>1.9</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="20">
-        <v>44961</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1.125</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1.55</v>
-      </c>
-      <c r="G21">
-        <v>1.6</v>
-      </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="20">
-        <v>44962</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="20">
-        <v>44964</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="20">
-        <v>44966</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1.375</v>
-      </c>
-      <c r="G24">
-        <v>1.95</v>
-      </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="20">
-        <v>44966</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="20">
-        <v>44968</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="G26">
-        <v>0.8</v>
-      </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="20">
-        <v>44970</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="F27" s="2">
-        <v>2.25</v>
-      </c>
-      <c r="G27">
-        <v>1.125</v>
-      </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="20">
-        <v>44984</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1.125</v>
-      </c>
-      <c r="G28">
-        <v>1.5</v>
-      </c>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="20">
-        <v>44981</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="G29">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="20">
-        <v>44989</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G30">
-        <v>1.9</v>
-      </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="20">
-        <v>44954</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1.32</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1.48</v>
-      </c>
-      <c r="G31">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="20">
-        <v>44954</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G32">
-        <v>2.25</v>
-      </c>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="20">
-        <v>44954</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1.28</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="20">
-        <v>44955</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F34" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="G34">
-        <v>2.75</v>
-      </c>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="20">
-        <v>44955</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="G35">
-        <v>1.75</v>
-      </c>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="20">
-        <v>44956</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="G36">
-        <v>2.35</v>
-      </c>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="20">
-        <v>44957</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="20">
-        <v>44959</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="G38">
-        <v>1.25</v>
-      </c>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="20">
-        <v>44961</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="G39">
-        <v>1.5</v>
-      </c>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="20">
-        <v>44962</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="G40">
-        <v>0.9</v>
-      </c>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="20">
-        <v>44963</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="20">
-        <v>44966</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="F42" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="20">
-        <v>44954</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F43" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G43" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="20">
-        <v>44956</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="F44" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="20">
-        <v>44957</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="20">
-        <v>44957</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="G46" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="20">
-        <v>44962</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="F47" s="2">
-        <v>1.8839999999999999</v>
-      </c>
-      <c r="G47" s="2">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="20">
-        <v>44963</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1</v>
-      </c>
-      <c r="F48" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="G48" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="20">
-        <v>44963</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="F49" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D52" s="2"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D53" s="2"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D55" s="2"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D56" s="2"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D57" s="2"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D58" s="2"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B1:B49 B85:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -5441,22 +5306,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -5655,7 +5520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -5671,22 +5536,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="78.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -6021,7 +5886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -6038,22 +5903,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="85.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -6218,7 +6083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -6234,24 +6099,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -6497,8 +6362,8 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="18"/>
     </row>
   </sheetData>
@@ -6513,7 +6378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -6530,22 +6395,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -6667,8 +6532,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="18"/>
       <c r="E10" s="2"/>
     </row>
@@ -6688,7 +6553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -6704,22 +6569,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -6884,7 +6749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -6902,22 +6767,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -7152,6 +7017,1486 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="2"/>
+    <col min="3" max="3" width="10.81640625" style="2"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.26953125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="20">
+        <v>44949</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="F4" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G4">
+        <v>1.2149999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="20">
+        <v>44957</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.165</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G5">
+        <v>2.39</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="20">
+        <v>44981</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.1524999999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.2350000000000003</v>
+      </c>
+      <c r="G6">
+        <v>2.3174999999999999</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="20">
+        <v>44955</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.675</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="20">
+        <v>44961</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.79</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="20">
+        <v>44963</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G9">
+        <v>1.55</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="20">
+        <v>44963</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="20">
+        <v>44963</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="20">
+        <v>44949</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="20">
+        <v>44960</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="20">
+        <v>44968</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G14">
+        <v>1.8</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="20">
+        <v>44971</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="20">
+        <v>44954</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G16">
+        <v>2.4</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="20">
+        <v>44954</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G17">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="20">
+        <v>44955</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.4449999999999998</v>
+      </c>
+      <c r="G18">
+        <v>0.96</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="20">
+        <v>44957</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="20">
+        <v>44959</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="G20">
+        <v>1.9</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="20">
+        <v>44961</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="G21">
+        <v>1.6</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="20">
+        <v>44962</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="20">
+        <v>44964</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="20">
+        <v>44966</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.375</v>
+      </c>
+      <c r="G24">
+        <v>1.95</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="20">
+        <v>44966</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="20">
+        <v>44968</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G26">
+        <v>0.8</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="20">
+        <v>44970</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="G27">
+        <v>1.125</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="20">
+        <v>44984</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="G28">
+        <v>1.5</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="20">
+        <v>44981</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="20">
+        <v>44989</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G30">
+        <v>1.9</v>
+      </c>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="20">
+        <v>44954</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="G31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="20">
+        <v>44954</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G32">
+        <v>2.25</v>
+      </c>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="20">
+        <v>44954</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="20">
+        <v>44955</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G34">
+        <v>2.75</v>
+      </c>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="20">
+        <v>44955</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="G35">
+        <v>1.75</v>
+      </c>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="20">
+        <v>44956</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="G36">
+        <v>2.35</v>
+      </c>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="20">
+        <v>44957</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="20">
+        <v>44959</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G38">
+        <v>1.25</v>
+      </c>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="20">
+        <v>44961</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G39">
+        <v>1.5</v>
+      </c>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="20">
+        <v>44962</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G40">
+        <v>0.9</v>
+      </c>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="20">
+        <v>44963</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="20">
+        <v>44966</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="20">
+        <v>44954</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="20">
+        <v>44956</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="20">
+        <v>44957</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="20">
+        <v>44957</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="20">
+        <v>44962</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="20">
+        <v>44963</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="20">
+        <v>44963</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1:B49 B85:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="2"/>
+    <col min="3" max="3" width="10.81640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="20">
+        <v>44841</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="20">
+        <v>44963</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="20">
+        <v>44963</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="20">
+        <v>44954</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="20">
+        <v>44962</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="20">
+        <v>44989</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="20">
+        <v>45007</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="20">
+        <v>44955</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="20">
+        <v>44956</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="20">
+        <v>44957</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="20">
+        <v>44962</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
@@ -7168,26 +8513,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:16" ht="46.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -7481,7 +8826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
@@ -7498,26 +8843,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -7923,333 +9268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="2"/>
-    <col min="3" max="3" width="10.81640625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="20">
-        <v>44841</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="20">
-        <v>44963</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="20">
-        <v>44963</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="20">
-        <v>44954</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="20">
-        <v>44962</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2.4E-2</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="20">
-        <v>44989</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="20">
-        <v>45007</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="20">
-        <v>44955</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="20">
-        <v>44956</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.128</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="20">
-        <v>44957</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="2">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="20">
-        <v>44962</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="2">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -8266,22 +9285,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="37.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -8481,7 +9500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -8497,22 +9516,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -8626,12 +9645,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8639,29 +9658,30 @@
     <col min="1" max="1" width="13.453125" customWidth="1"/>
     <col min="3" max="3" width="10.81640625" style="2"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -8795,13 +9815,15 @@
         <v>165</v>
       </c>
       <c r="E9" s="2">
-        <v>12</v>
+        <f>12/(3)</f>
+        <v>4</v>
       </c>
       <c r="F9" s="2">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G9" s="2">
-        <v>24</v>
+        <f>24/(3)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -8818,8 +9840,8 @@
         <v>165</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="3">
-        <v>24</v>
+      <c r="F10" s="2">
+        <v>8</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -8837,13 +9859,15 @@
         <v>165</v>
       </c>
       <c r="E11" s="2">
-        <v>24</v>
-      </c>
-      <c r="F11" s="3">
-        <v>36</v>
+        <f>24/(3)</f>
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>12</v>
       </c>
       <c r="G11" s="2">
-        <v>48</v>
+        <f>48/(3)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -8860,13 +9884,15 @@
         <v>165</v>
       </c>
       <c r="E12" s="2">
+        <f>9/(3)</f>
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <f>27/(3)</f>
         <v>9</v>
-      </c>
-      <c r="F12" s="2">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -8884,7 +9910,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -8902,10 +9928,11 @@
         <v>165</v>
       </c>
       <c r="E14" s="2">
-        <v>6</v>
+        <f>6/(3)</f>
+        <v>2</v>
       </c>
       <c r="F14" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -8923,11 +9950,15 @@
         <v>165</v>
       </c>
       <c r="E15" s="2">
-        <v>9</v>
-      </c>
-      <c r="F15" s="2"/>
+        <f>9/(3)</f>
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4.5</v>
+      </c>
       <c r="G15" s="2">
-        <v>18</v>
+        <f>18/(3)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -8945,7 +9976,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -8963,13 +9994,15 @@
         <v>165</v>
       </c>
       <c r="E17" s="2">
-        <v>7.2</v>
+        <f>7.2/(3)</f>
+        <v>2.4</v>
       </c>
       <c r="F17" s="2">
-        <v>14.4</v>
+        <v>4.8</v>
       </c>
       <c r="G17" s="2">
-        <v>20.7</v>
+        <f>20.7/(3)</f>
+        <v>6.8999999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -8986,13 +10019,15 @@
         <v>165</v>
       </c>
       <c r="E18" s="2">
-        <v>5.4</v>
+        <f>5.4/(3)</f>
+        <v>1.8</v>
       </c>
       <c r="F18" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G18" s="2">
-        <v>20.7</v>
+        <f>20.7/(3)</f>
+        <v>6.8999999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -9009,13 +10044,15 @@
         <v>165</v>
       </c>
       <c r="E19" s="2">
+        <f>3/(3)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
         <v>3</v>
       </c>
-      <c r="F19" s="2">
-        <v>9</v>
-      </c>
       <c r="G19" s="2">
-        <v>18</v>
+        <f>18/(3)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -9031,344 +10068,11 @@
       <c r="D20" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F20">
-        <v>25</v>
-      </c>
-      <c r="G20">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:7" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="21">
-        <v>44847</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="21">
-        <v>44950</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="21">
-        <v>44979</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="21">
-        <v>44957</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="21">
-        <v>44966</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="2">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="G8" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="21">
-        <v>44981</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" s="2">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2">
-        <v>18</v>
-      </c>
-      <c r="G9" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="21">
-        <v>44999</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <v>24</v>
-      </c>
-      <c r="G10" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="21">
-        <v>44954</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="F11" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="G11" s="2">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="21">
-        <v>44955</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" s="2">
-        <v>24</v>
-      </c>
-      <c r="F12" s="2">
-        <v>30</v>
-      </c>
-      <c r="G12" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="21">
-        <v>44963</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <v>30</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="21">
-        <v>44960</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="2">
-        <v>30</v>
-      </c>
-      <c r="F14" s="2">
-        <v>36</v>
-      </c>
-      <c r="G14" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="21">
-        <v>44979</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="21">
-        <v>44984</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F16" s="2">
-        <v>48</v>
-      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="43">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/realization_times.xlsx
+++ b/realization_times.xlsx
@@ -905,7 +905,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1149,6 +1149,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1203,8 +1205,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1797,26 +1797,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -1908,7 +1908,7 @@
         <v>166</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="43">
+      <c r="F7" s="25">
         <v>8.6666666666666661</v>
       </c>
       <c r="G7" s="2"/>
@@ -1929,7 +1929,7 @@
       <c r="E8" s="2">
         <v>4</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="25">
         <v>5.6000000000000005</v>
       </c>
       <c r="G8" s="2">
@@ -1952,7 +1952,7 @@
       <c r="E9" s="2">
         <v>4</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="26">
         <v>6</v>
       </c>
       <c r="G9" s="2">
@@ -1973,7 +1973,7 @@
         <v>166</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="44">
+      <c r="F10" s="26">
         <v>8</v>
       </c>
       <c r="G10" s="2">
@@ -1996,7 +1996,7 @@
       <c r="E11" s="2">
         <v>1.8</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="25">
         <v>2.4333333333333331</v>
       </c>
       <c r="G11" s="2">
@@ -2131,26 +2131,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="55.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -2348,25 +2348,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -2697,24 +2697,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -3083,22 +3083,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -3365,26 +3365,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -3539,22 +3539,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -3838,22 +3838,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -4118,22 +4118,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="67.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -4400,22 +4400,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="76.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -4652,8 +4652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4663,22 +4663,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
@@ -4923,13 +4923,13 @@
         <v>249</v>
       </c>
       <c r="B17">
-        <v>8.5299999999999994</v>
+        <v>4.5</v>
       </c>
       <c r="C17">
-        <v>12.3</v>
+        <v>5.69</v>
       </c>
       <c r="D17">
-        <v>16.7</v>
+        <v>6.99</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>268</v>
@@ -4940,13 +4940,13 @@
         <v>250</v>
       </c>
       <c r="B18">
-        <v>15.6</v>
+        <v>6.76</v>
       </c>
       <c r="C18">
-        <v>23.3</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="D18">
-        <v>31.2</v>
+        <v>11.05</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>268</v>
@@ -5143,22 +5143,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -5306,22 +5306,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -5536,22 +5536,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="78.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -5903,22 +5903,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="85.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -6099,24 +6099,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -6362,8 +6362,8 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="18"/>
     </row>
   </sheetData>
@@ -6395,22 +6395,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -6532,8 +6532,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="18"/>
       <c r="E10" s="2"/>
     </row>
@@ -6569,22 +6569,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -6767,22 +6767,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -7035,26 +7035,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -8186,26 +8186,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -8513,26 +8513,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:16" ht="46.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -8843,26 +8843,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -9285,22 +9285,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="37.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -9516,22 +9516,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -9662,26 +9662,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -10069,7 +10069,7 @@
         <v>165</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="43">
+      <c r="F20" s="25">
         <v>8.3333333333333339</v>
       </c>
       <c r="G20" s="2"/>

--- a/realization_times.xlsx
+++ b/realization_times.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\CrafTiMod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CrafTiMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE4D7BF-2408-4D77-A9D0-4423FDF47249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="4670" windowWidth="19420" windowHeight="10560" activeTab="4"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="14" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -40,7 +41,7 @@
     <sheet name="Fuel Cell" sheetId="28" r:id="rId26"/>
     <sheet name="DH" sheetId="29" r:id="rId27"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="337">
   <si>
     <t>A</t>
   </si>
@@ -1056,216 +1057,6 @@
   </si>
   <si>
     <t>100.4</t>
-  </si>
-  <si>
-    <t>0.9125</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>2.39</t>
-  </si>
-  <si>
-    <t>1.79</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>1.55</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>0.625</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>2.45</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>1.95</t>
-  </si>
-  <si>
-    <t>1.35</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>0.775</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>1.48</t>
-  </si>
-  <si>
-    <t>0.975</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.925</t>
-  </si>
-  <si>
-    <t>1.26</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.024</t>
-  </si>
-  <si>
-    <t>0.128</t>
-  </si>
-  <si>
-    <t>0.076</t>
-  </si>
-  <si>
-    <t>0.075</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>8.75</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>6.25</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>8.7</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>6.9</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>34.5</t>
-  </si>
-  <si>
-    <t>49.5</t>
-  </si>
-  <si>
-    <t>43.75</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>57.6</t>
   </si>
   <si>
     <t>District heating connection</t>
@@ -1284,11 +1075,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1531,9 +1318,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1547,9 +1331,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1611,6 +1392,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1906,7 +1693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B2:E30"/>
   <sheetViews>
@@ -1914,14 +1701,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="4.453125" customWidth="1"/>
-    <col min="4" max="4" width="57.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>109</v>
       </c>
@@ -1929,13 +1716,13 @@
       <c r="D2" s="7"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>110</v>
       </c>
@@ -1945,7 +1732,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>230</v>
       </c>
@@ -1954,7 +1741,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>181</v>
       </c>
@@ -1964,7 +1751,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>112</v>
       </c>
@@ -1973,7 +1760,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>114</v>
       </c>
@@ -1983,7 +1770,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>113</v>
       </c>
@@ -1993,7 +1780,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>117</v>
       </c>
@@ -2002,7 +1789,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>120</v>
       </c>
@@ -2011,7 +1798,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
@@ -2020,7 +1807,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
@@ -2029,7 +1816,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>125</v>
       </c>
@@ -2038,7 +1825,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>130</v>
       </c>
@@ -2047,7 +1834,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>131</v>
       </c>
@@ -2056,7 +1843,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
@@ -2065,7 +1852,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>118</v>
       </c>
@@ -2074,7 +1861,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>135</v>
       </c>
@@ -2083,7 +1870,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>136</v>
       </c>
@@ -2092,7 +1879,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>134</v>
       </c>
@@ -2101,7 +1888,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>137</v>
       </c>
@@ -2110,7 +1897,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>138</v>
       </c>
@@ -2119,7 +1906,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>139</v>
       </c>
@@ -2128,7 +1915,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>140</v>
       </c>
@@ -2137,7 +1924,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>141</v>
       </c>
@@ -2146,7 +1933,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>9</v>
       </c>
@@ -2155,7 +1942,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>142</v>
       </c>
@@ -2164,7 +1951,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>144</v>
       </c>
@@ -2173,7 +1960,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>143</v>
       </c>
@@ -2189,48 +1976,48 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Tabelle10"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E11" sqref="E11:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" style="15"/>
-    <col min="6" max="6" width="17.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.90625" style="15"/>
+    <col min="1" max="1" width="13.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="15"/>
+    <col min="6" max="6" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -2238,7 +2025,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -2253,48 +2040,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>44847</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F4" s="46">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>44950</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F5" s="46">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>44979</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -2304,31 +2091,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>44957</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="27" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+      <c r="F7" s="46">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>44966</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -2337,21 +2124,21 @@
       <c r="E8" s="15">
         <v>4</v>
       </c>
-      <c r="F8" s="27" t="s">
-        <v>389</v>
+      <c r="F8" s="46">
+        <v>5.6</v>
       </c>
       <c r="G8" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>44981</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -2360,64 +2147,64 @@
       <c r="E9" s="15">
         <v>4</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="27">
         <v>6</v>
       </c>
       <c r="G9" s="15">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>44999</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="27">
         <v>8</v>
       </c>
       <c r="G10" s="15">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>44954</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
+      <c r="E11" s="46">
+        <v>1.8</v>
+      </c>
+      <c r="F11" s="46">
+        <v>2.4</v>
+      </c>
+      <c r="G11" s="46">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>44955</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -2433,14 +2220,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>44963</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -2450,14 +2237,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>44960</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -2473,14 +2260,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>44979</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -2490,14 +2277,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="24">
         <v>44984</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -2518,43 +2305,43 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Tabelle11"/>
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" ht="55.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" ht="55.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -2562,7 +2349,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -2577,14 +2364,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>44979</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -2600,14 +2387,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>44957</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -2621,33 +2408,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>44981</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>125</v>
       </c>
       <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
-        <v>353</v>
+      <c r="F6" s="46">
+        <v>0.5</v>
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>44963</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -2659,14 +2446,14 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>44960</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -2680,14 +2467,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>44979</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -2699,14 +2486,14 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>44984</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -2718,20 +2505,20 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I24" s="1"/>
     </row>
   </sheetData>
@@ -2745,7 +2532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -2753,36 +2540,36 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:7" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -2790,7 +2577,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -2803,283 +2590,283 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>44847</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>15</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>44950</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>16</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>44979</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>16</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>44993</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>25</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>44993</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>16</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>44993</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>16</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>44993</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>8</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>44847</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>48</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>44984</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>6</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>44959</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>16</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>44971</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>20</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>44971</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <v>16</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="23">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="24">
         <v>44973</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>16</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="23">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="24">
         <v>44973</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <v>20</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <v>32</v>
       </c>
     </row>
@@ -3095,7 +2882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Tabelle13"/>
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -3103,34 +2890,34 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -3138,7 +2925,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -3150,7 +2937,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -3163,14 +2950,14 @@
       <c r="D4" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>25</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -3183,14 +2970,14 @@
       <c r="D5" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>48</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -3203,14 +2990,14 @@
       <c r="D6" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>32</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
@@ -3223,14 +3010,14 @@
       <c r="D7" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>25</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
@@ -3243,14 +3030,14 @@
       <c r="D8" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>32</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -3263,14 +3050,14 @@
       <c r="D9" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>32</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
@@ -3283,14 +3070,14 @@
       <c r="D10" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>12</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
@@ -3303,14 +3090,14 @@
       <c r="D11" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>96</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>2</v>
       </c>
@@ -3323,14 +3110,14 @@
       <c r="D12" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>48</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>2</v>
       </c>
@@ -3343,14 +3130,14 @@
       <c r="D13" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>16</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>0</v>
       </c>
@@ -3363,14 +3150,14 @@
       <c r="D14" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>30</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
@@ -3383,14 +3170,14 @@
       <c r="D15" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <v>30</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="23">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>0</v>
       </c>
@@ -3403,14 +3190,14 @@
       <c r="D16" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>50</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="23">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>0</v>
       </c>
@@ -3423,14 +3210,14 @@
       <c r="D17" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <v>32</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>0</v>
       </c>
@@ -3443,14 +3230,14 @@
       <c r="D18" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <v>32</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="23">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>0</v>
       </c>
@@ -3463,10 +3250,10 @@
       <c r="D19" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <v>50</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <v>50</v>
       </c>
     </row>
@@ -3482,40 +3269,40 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Tabelle14"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -3523,7 +3310,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -3532,7 +3319,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -3545,11 +3332,11 @@
       <c r="D4" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -3562,11 +3349,11 @@
       <c r="D5" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -3579,11 +3366,11 @@
       <c r="D6" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
@@ -3596,11 +3383,11 @@
       <c r="D7" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
@@ -3613,11 +3400,11 @@
       <c r="D8" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>2</v>
       </c>
@@ -3630,11 +3417,11 @@
       <c r="D9" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
@@ -3647,11 +3434,11 @@
       <c r="D10" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
@@ -3664,11 +3451,11 @@
       <c r="D11" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="47">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>2</v>
       </c>
@@ -3681,11 +3468,11 @@
       <c r="D12" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>0</v>
       </c>
@@ -3698,11 +3485,11 @@
       <c r="D13" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>0</v>
       </c>
@@ -3715,11 +3502,11 @@
       <c r="D14" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
@@ -3732,11 +3519,11 @@
       <c r="D15" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>0</v>
       </c>
@@ -3749,7 +3536,7 @@
       <c r="D16" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>4</v>
       </c>
     </row>
@@ -3764,45 +3551,45 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Tabelle15"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -3810,7 +3597,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -3825,7 +3612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
@@ -3838,17 +3625,17 @@
       <c r="D4" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E4" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="46">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
@@ -3864,12 +3651,12 @@
       <c r="E5" s="15">
         <v>0</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>395</v>
+      <c r="F5" s="46">
+        <v>0.84</v>
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
@@ -3882,15 +3669,15 @@
       <c r="D6" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>395</v>
+      <c r="E6" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="F6" s="46">
+        <v>0.84</v>
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
@@ -3903,15 +3690,15 @@
       <c r="D7" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>354</v>
+      <c r="E7" s="46">
+        <v>0.72</v>
+      </c>
+      <c r="F7" s="46">
+        <v>0.8</v>
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -3927,8 +3714,8 @@
       <c r="E8" s="15">
         <v>0</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>350</v>
+      <c r="F8" s="46">
+        <v>0.75</v>
       </c>
       <c r="G8" s="15"/>
     </row>
@@ -3943,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Tabelle16"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -3951,33 +3738,33 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -3985,7 +3772,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -3994,7 +3781,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -4007,11 +3794,11 @@
       <c r="D4" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -4024,11 +3811,11 @@
       <c r="D5" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -4041,11 +3828,11 @@
       <c r="D6" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
@@ -4058,11 +3845,11 @@
       <c r="D7" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
@@ -4075,11 +3862,11 @@
       <c r="D8" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -4092,11 +3879,11 @@
       <c r="D9" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
@@ -4109,11 +3896,11 @@
       <c r="D10" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
@@ -4126,11 +3913,11 @@
       <c r="D11" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>2</v>
       </c>
@@ -4143,11 +3930,11 @@
       <c r="D12" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>2</v>
       </c>
@@ -4160,11 +3947,11 @@
       <c r="D13" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>0</v>
       </c>
@@ -4177,11 +3964,11 @@
       <c r="D14" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
@@ -4194,11 +3981,11 @@
       <c r="D15" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>0</v>
       </c>
@@ -4211,11 +3998,11 @@
       <c r="D16" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>0</v>
       </c>
@@ -4228,7 +4015,7 @@
       <c r="D17" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <v>50</v>
       </c>
     </row>
@@ -4243,7 +4030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Tabelle17"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -4251,33 +4038,33 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -4285,7 +4072,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -4294,7 +4081,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -4307,11 +4094,11 @@
       <c r="D4" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -4324,11 +4111,11 @@
       <c r="D5" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -4341,11 +4128,11 @@
       <c r="D6" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
@@ -4358,11 +4145,11 @@
       <c r="D7" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
@@ -4375,11 +4162,11 @@
       <c r="D8" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>2</v>
       </c>
@@ -4392,11 +4179,11 @@
       <c r="D9" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
@@ -4409,11 +4196,11 @@
       <c r="D10" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
@@ -4426,11 +4213,11 @@
       <c r="D11" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>0</v>
       </c>
@@ -4443,11 +4230,11 @@
       <c r="D12" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>0</v>
       </c>
@@ -4460,11 +4247,11 @@
       <c r="D13" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>0</v>
       </c>
@@ -4477,11 +4264,11 @@
       <c r="D14" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
@@ -4494,11 +4281,11 @@
       <c r="D15" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>0</v>
       </c>
@@ -4511,7 +4298,7 @@
       <c r="D16" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>100</v>
       </c>
     </row>
@@ -4526,39 +4313,39 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Tabelle18"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" ht="67.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="67.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -4566,7 +4353,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -4575,7 +4362,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -4588,11 +4375,11 @@
       <c r="D4" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -4605,11 +4392,11 @@
       <c r="D5" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="47">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -4622,11 +4409,11 @@
       <c r="D6" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
@@ -4639,11 +4426,11 @@
       <c r="D7" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
@@ -4656,11 +4443,11 @@
       <c r="D8" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -4673,11 +4460,11 @@
       <c r="D9" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
@@ -4690,11 +4477,11 @@
       <c r="D10" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
@@ -4707,11 +4494,11 @@
       <c r="D11" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>2</v>
       </c>
@@ -4724,11 +4511,11 @@
       <c r="D12" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>0</v>
       </c>
@@ -4741,11 +4528,11 @@
       <c r="D13" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>0</v>
       </c>
@@ -4758,11 +4545,11 @@
       <c r="D14" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
@@ -4775,11 +4562,11 @@
       <c r="D15" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>0</v>
       </c>
@@ -4792,7 +4579,7 @@
       <c r="D16" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>80</v>
       </c>
     </row>
@@ -4807,7 +4594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Tabelle19"/>
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -4815,33 +4602,33 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" ht="76.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="76.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -4849,7 +4636,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -4858,7 +4645,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -4871,11 +4658,11 @@
       <c r="D4" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -4888,11 +4675,11 @@
       <c r="D5" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -4905,11 +4692,11 @@
       <c r="D6" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
@@ -4922,11 +4709,11 @@
       <c r="D7" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
@@ -4939,11 +4726,11 @@
       <c r="D8" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -4956,11 +4743,11 @@
       <c r="D9" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
@@ -4973,11 +4760,11 @@
       <c r="D10" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
@@ -4990,11 +4777,11 @@
       <c r="D11" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>2</v>
       </c>
@@ -5007,11 +4794,11 @@
       <c r="D12" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>2</v>
       </c>
@@ -5024,11 +4811,11 @@
       <c r="D13" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>0</v>
       </c>
@@ -5041,11 +4828,11 @@
       <c r="D14" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
@@ -5058,7 +4845,7 @@
       <c r="D15" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <v>60</v>
       </c>
     </row>
@@ -5073,7 +4860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:E27"/>
   <sheetViews>
@@ -5081,31 +4868,31 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>232</v>
       </c>
@@ -5122,7 +4909,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>233</v>
       </c>
@@ -5139,7 +4926,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>234</v>
       </c>
@@ -5156,7 +4943,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>235</v>
       </c>
@@ -5173,7 +4960,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>236</v>
       </c>
@@ -5190,7 +4977,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>237</v>
       </c>
@@ -5207,7 +4994,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>238</v>
       </c>
@@ -5224,7 +5011,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>239</v>
       </c>
@@ -5241,7 +5028,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>240</v>
       </c>
@@ -5258,7 +5045,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>241</v>
       </c>
@@ -5275,7 +5062,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>242</v>
       </c>
@@ -5292,7 +5079,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>243</v>
       </c>
@@ -5309,7 +5096,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>244</v>
       </c>
@@ -5326,7 +5113,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>245</v>
       </c>
@@ -5343,7 +5130,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>246</v>
       </c>
@@ -5360,7 +5147,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>247</v>
       </c>
@@ -5377,7 +5164,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>248</v>
       </c>
@@ -5394,7 +5181,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>249</v>
       </c>
@@ -5411,7 +5198,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>250</v>
       </c>
@@ -5428,7 +5215,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>251</v>
       </c>
@@ -5445,7 +5232,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>252</v>
       </c>
@@ -5462,7 +5249,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>253</v>
       </c>
@@ -5479,7 +5266,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>254</v>
       </c>
@@ -5496,7 +5283,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>255</v>
       </c>
@@ -5513,7 +5300,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>256</v>
       </c>
@@ -5552,7 +5339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Tabelle20"/>
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -5560,33 +5347,33 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -5594,7 +5381,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -5603,7 +5390,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -5616,11 +5403,11 @@
       <c r="D4" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
@@ -5633,11 +5420,11 @@
       <c r="D5" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
@@ -5650,11 +5437,11 @@
       <c r="D6" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>2</v>
       </c>
@@ -5667,11 +5454,11 @@
       <c r="D7" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -5684,11 +5471,11 @@
       <c r="D8" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
@@ -5701,7 +5488,7 @@
       <c r="D9" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>80</v>
       </c>
     </row>
@@ -5716,7 +5503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Tabelle21"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -5724,33 +5511,33 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -5758,7 +5545,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -5767,7 +5554,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -5780,11 +5567,11 @@
       <c r="D4" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -5797,11 +5584,11 @@
       <c r="D5" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -5814,11 +5601,11 @@
       <c r="D6" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
@@ -5831,11 +5618,11 @@
       <c r="D7" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>2</v>
       </c>
@@ -5848,11 +5635,11 @@
       <c r="D8" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>2</v>
       </c>
@@ -5865,11 +5652,11 @@
       <c r="D9" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
@@ -5882,11 +5669,11 @@
       <c r="D10" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
@@ -5899,11 +5686,11 @@
       <c r="D11" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>0</v>
       </c>
@@ -5916,11 +5703,11 @@
       <c r="D12" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>0</v>
       </c>
@@ -5933,7 +5720,7 @@
       <c r="D13" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>60</v>
       </c>
     </row>
@@ -5948,40 +5735,40 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Tabelle22"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E8" sqref="E8:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -5989,7 +5776,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -5998,7 +5785,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -6011,11 +5798,11 @@
       <c r="D4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -6028,11 +5815,11 @@
       <c r="D5" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -6045,11 +5832,11 @@
       <c r="D6" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -6062,11 +5849,11 @@
       <c r="D7" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -6079,11 +5866,11 @@
       <c r="D8" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" s="47">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
@@ -6096,11 +5883,11 @@
       <c r="D9" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -6113,11 +5900,11 @@
       <c r="D10" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
@@ -6130,11 +5917,11 @@
       <c r="D11" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
@@ -6147,11 +5934,11 @@
       <c r="D12" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
@@ -6164,11 +5951,11 @@
       <c r="D13" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>3</v>
       </c>
@@ -6181,11 +5968,11 @@
       <c r="D14" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>3</v>
       </c>
@@ -6198,11 +5985,11 @@
       <c r="D15" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="47">
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>0</v>
       </c>
@@ -6215,11 +6002,11 @@
       <c r="D16" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>0</v>
       </c>
@@ -6232,11 +6019,11 @@
       <c r="D17" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>0</v>
       </c>
@@ -6249,11 +6036,11 @@
       <c r="D18" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>0</v>
       </c>
@@ -6266,11 +6053,11 @@
       <c r="D19" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>0</v>
       </c>
@@ -6283,11 +6070,11 @@
       <c r="D20" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>0</v>
       </c>
@@ -6300,7 +6087,7 @@
       <c r="D21" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <v>100</v>
       </c>
     </row>
@@ -6315,41 +6102,41 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Tabelle23"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" ht="85.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="85.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -6357,7 +6144,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -6366,7 +6153,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -6379,11 +6166,11 @@
       <c r="D4" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" s="46">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -6396,11 +6183,11 @@
       <c r="D5" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="46">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -6417,7 +6204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -6430,11 +6217,11 @@
       <c r="D7" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" s="46">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -6447,11 +6234,11 @@
       <c r="D8" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" s="46">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
@@ -6464,11 +6251,11 @@
       <c r="D9" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" s="46">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>0</v>
       </c>
@@ -6485,7 +6272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>0</v>
       </c>
@@ -6513,7 +6300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Tabelle24"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -6521,34 +6308,34 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -6556,7 +6343,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -6571,7 +6358,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -6584,7 +6371,7 @@
       <c r="D4" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>11</v>
       </c>
       <c r="F4" s="15"/>
@@ -6592,7 +6379,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -6605,7 +6392,7 @@
       <c r="D5" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>24</v>
       </c>
       <c r="F5" s="15"/>
@@ -6613,7 +6400,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -6626,17 +6413,17 @@
       <c r="D6" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>32</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>32</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
@@ -6649,17 +6436,17 @@
       <c r="D7" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>16</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <v>32</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
@@ -6672,7 +6459,7 @@
       <c r="D8" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>16</v>
       </c>
       <c r="F8" s="15"/>
@@ -6680,7 +6467,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -6693,7 +6480,7 @@
       <c r="D9" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>16</v>
       </c>
       <c r="F9" s="15"/>
@@ -6701,7 +6488,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>1</v>
       </c>
@@ -6714,7 +6501,7 @@
       <c r="D10" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>16</v>
       </c>
       <c r="F10" s="15"/>
@@ -6722,7 +6509,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
@@ -6735,17 +6522,17 @@
       <c r="D11" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>16</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <v>24</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>2</v>
       </c>
@@ -6758,17 +6545,17 @@
       <c r="D12" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>16</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <v>32</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>2</v>
       </c>
@@ -6781,19 +6568,19 @@
       <c r="D13" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>16</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <v>48</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="10"/>
     </row>
   </sheetData>
@@ -6809,7 +6596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Tabelle25"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -6817,33 +6604,33 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -6851,7 +6638,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -6860,7 +6647,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -6873,11 +6660,11 @@
       <c r="D4" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -6890,11 +6677,11 @@
       <c r="D5" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -6907,11 +6694,11 @@
       <c r="D6" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
@@ -6924,11 +6711,11 @@
       <c r="D7" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>2</v>
       </c>
@@ -6941,11 +6728,11 @@
       <c r="D8" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>2</v>
       </c>
@@ -6958,17 +6745,17 @@
       <c r="D9" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="10"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="D11" s="1"/>
@@ -6985,7 +6772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr codeName="Tabelle26"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -6993,32 +6780,32 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -7026,7 +6813,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -7035,7 +6822,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -7048,11 +6835,11 @@
       <c r="D4" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -7065,11 +6852,11 @@
       <c r="D5" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
@@ -7082,11 +6869,11 @@
       <c r="D6" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>2</v>
       </c>
@@ -7099,11 +6886,11 @@
       <c r="D7" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>2</v>
       </c>
@@ -7116,11 +6903,11 @@
       <c r="D8" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
@@ -7133,11 +6920,11 @@
       <c r="D9" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>0</v>
       </c>
@@ -7150,11 +6937,11 @@
       <c r="D10" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>0</v>
       </c>
@@ -7167,7 +6954,7 @@
       <c r="D11" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>160</v>
       </c>
     </row>
@@ -7182,43 +6969,43 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr codeName="Tabelle27"/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="15"/>
-    <col min="3" max="3" width="18.1796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="10.90625" style="15"/>
+    <col min="1" max="1" width="15.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="15"/>
+    <col min="3" max="3" width="18.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="10.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
-        <v>404</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -7226,7 +7013,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -7235,7 +7022,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -7248,11 +7035,11 @@
       <c r="D4" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -7265,11 +7052,11 @@
       <c r="D5" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -7282,11 +7069,11 @@
       <c r="D6" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
@@ -7299,11 +7086,11 @@
       <c r="D7" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" s="47">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
@@ -7316,11 +7103,11 @@
       <c r="D8" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -7333,11 +7120,11 @@
       <c r="D9" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
@@ -7350,11 +7137,11 @@
       <c r="D10" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
@@ -7367,11 +7154,11 @@
       <c r="D11" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>2</v>
       </c>
@@ -7384,11 +7171,11 @@
       <c r="D12" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>0</v>
       </c>
@@ -7401,11 +7188,11 @@
       <c r="D13" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>0</v>
       </c>
@@ -7418,11 +7205,11 @@
       <c r="D14" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
@@ -7435,7 +7222,7 @@
       <c r="D15" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <v>32</v>
       </c>
     </row>
@@ -7451,47 +7238,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A7" zoomScale="80" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="1"/>
-    <col min="3" max="3" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="58.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -7499,7 +7286,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -7514,7 +7301,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -7527,17 +7314,17 @@
       <c r="D4" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="E4" s="46">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="F4" s="46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G4" s="21">
         <v>1215</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
@@ -7550,18 +7337,18 @@
       <c r="D5" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>1165</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>336</v>
+      <c r="F5" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="46">
+        <v>2.39</v>
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
@@ -7574,18 +7361,18 @@
       <c r="D6" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>21525</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>2235</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>23175</v>
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
@@ -7599,13 +7386,13 @@
         <v>180</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>1675</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>0</v>
       </c>
@@ -7619,13 +7406,13 @@
         <v>180</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
-        <v>337</v>
+      <c r="F8" s="46">
+        <v>1.79</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
@@ -7638,18 +7425,18 @@
       <c r="D9" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>340</v>
+      <c r="E9" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="F9" s="46">
+        <v>1.25</v>
+      </c>
+      <c r="G9" s="46">
+        <v>1.55</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>0</v>
       </c>
@@ -7663,13 +7450,13 @@
         <v>180</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
-        <v>341</v>
+      <c r="F10" s="46">
+        <v>1.9</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>0</v>
       </c>
@@ -7686,12 +7473,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="15"/>
-      <c r="G11" s="15" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
+      <c r="G11" s="46">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -7703,15 +7490,15 @@
       <c r="D12" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>338</v>
+      <c r="E12" s="46">
+        <v>0.625</v>
+      </c>
+      <c r="F12" s="46">
+        <v>0.9</v>
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>0</v>
       </c>
@@ -7727,13 +7514,13 @@
       <c r="E13" s="15">
         <v>1</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>335</v>
+      <c r="F13" s="46">
+        <v>1.5</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>0</v>
       </c>
@@ -7749,15 +7536,15 @@
       <c r="E14" s="15">
         <v>1</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>345</v>
+      <c r="F14" s="46">
+        <v>1.4</v>
+      </c>
+      <c r="G14" s="46">
+        <v>1.8</v>
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
@@ -7776,7 +7563,7 @@
       </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>0</v>
       </c>
@@ -7789,18 +7576,18 @@
       <c r="D16" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>346</v>
+      <c r="E16" s="46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F16" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="46">
+        <v>2.4</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>0</v>
       </c>
@@ -7813,18 +7600,18 @@
       <c r="D17" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>348</v>
+      <c r="E17" s="46">
+        <v>1.2</v>
+      </c>
+      <c r="F17" s="46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G17" s="46">
+        <v>2.4500000000000002</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>0</v>
       </c>
@@ -7837,18 +7624,18 @@
       <c r="D18" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="F18" s="22">
+      <c r="E18" s="46">
+        <v>0.48</v>
+      </c>
+      <c r="F18" s="21">
         <v>1445</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>349</v>
+      <c r="G18" s="46">
+        <v>0.96</v>
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>0</v>
       </c>
@@ -7861,18 +7648,18 @@
       <c r="D19" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>345</v>
+      <c r="E19" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="F19" s="46">
+        <v>1.8</v>
       </c>
       <c r="G19" s="15">
         <v>1</v>
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>0</v>
       </c>
@@ -7885,18 +7672,18 @@
       <c r="D20" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="F20" s="22">
+      <c r="E20" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="F20" s="21">
         <v>1125</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>341</v>
+      <c r="G20" s="46">
+        <v>1.9</v>
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>0</v>
       </c>
@@ -7909,18 +7696,18 @@
       <c r="D21" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <v>1125</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>316</v>
+      <c r="F21" s="46">
+        <v>1.55</v>
+      </c>
+      <c r="G21" s="46">
+        <v>1.6</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>0</v>
       </c>
@@ -7933,17 +7720,17 @@
       <c r="D22" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>350</v>
+      <c r="E22" s="46">
+        <v>0.75</v>
       </c>
       <c r="F22" s="15">
         <v>1</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="46">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>0</v>
       </c>
@@ -7962,11 +7749,11 @@
       <c r="F23" s="15">
         <v>1</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G23" s="46">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>0</v>
       </c>
@@ -7979,18 +7766,18 @@
       <c r="D24" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <v>1225</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="21">
         <v>1375</v>
       </c>
-      <c r="G24" s="15" t="s">
-        <v>351</v>
+      <c r="G24" s="46">
+        <v>1.95</v>
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>0</v>
       </c>
@@ -8003,18 +7790,18 @@
       <c r="D25" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>335</v>
+      <c r="E25" s="46">
+        <v>1.35</v>
+      </c>
+      <c r="F25" s="46">
+        <v>1.5</v>
       </c>
       <c r="G25" s="15">
         <v>2</v>
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>0</v>
       </c>
@@ -8027,18 +7814,18 @@
       <c r="D26" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>354</v>
+      <c r="E26" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="46">
+        <v>1.2</v>
+      </c>
+      <c r="G26" s="46">
+        <v>0.8</v>
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>0</v>
       </c>
@@ -8051,18 +7838,18 @@
       <c r="D27" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="G27" s="22">
+      <c r="E27" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="F27" s="46">
+        <v>2.25</v>
+      </c>
+      <c r="G27" s="21">
         <v>1125</v>
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>0</v>
       </c>
@@ -8075,18 +7862,18 @@
       <c r="D28" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="F28" s="22">
+      <c r="E28" s="46">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F28" s="21">
         <v>1125</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>335</v>
+      <c r="G28" s="46">
+        <v>1.5</v>
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>0</v>
       </c>
@@ -8099,18 +7886,18 @@
       <c r="D29" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>334</v>
+      <c r="E29" s="46">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F29" s="46">
+        <v>1.25</v>
+      </c>
+      <c r="G29" s="46">
+        <v>1.1000000000000001</v>
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>0</v>
       </c>
@@ -8126,15 +7913,15 @@
       <c r="E30" s="15">
         <v>1</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>341</v>
+      <c r="F30" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="G30" s="46">
+        <v>1.9</v>
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>0</v>
       </c>
@@ -8147,18 +7934,18 @@
       <c r="D31" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>334</v>
+      <c r="E31" s="46">
+        <v>1.32</v>
+      </c>
+      <c r="F31" s="46">
+        <v>1.48</v>
+      </c>
+      <c r="G31" s="46">
+        <v>1.1000000000000001</v>
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>0</v>
       </c>
@@ -8171,18 +7958,18 @@
       <c r="D32" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>355</v>
+      <c r="E32" s="46">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F32" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="G32" s="46">
+        <v>2.25</v>
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>0</v>
       </c>
@@ -8195,17 +7982,17 @@
       <c r="D33" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E33" s="46">
+        <v>1.28</v>
+      </c>
+      <c r="F33" s="46">
+        <v>1.4</v>
+      </c>
+      <c r="G33" s="46">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>0</v>
       </c>
@@ -8218,18 +8005,18 @@
       <c r="D34" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>363</v>
+      <c r="E34" s="46">
+        <v>2.5</v>
+      </c>
+      <c r="F34" s="46">
+        <v>2.5</v>
+      </c>
+      <c r="G34" s="46">
+        <v>2.75</v>
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>0</v>
       </c>
@@ -8242,18 +8029,18 @@
       <c r="D35" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>342</v>
+      <c r="E35" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="F35" s="46">
+        <v>1.75</v>
+      </c>
+      <c r="G35" s="46">
+        <v>1.75</v>
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>0</v>
       </c>
@@ -8266,18 +8053,18 @@
       <c r="D36" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="21">
         <v>1225</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>364</v>
+      <c r="F36" s="46">
+        <v>1.75</v>
+      </c>
+      <c r="G36" s="46">
+        <v>2.35</v>
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>0</v>
       </c>
@@ -8290,16 +8077,16 @@
       <c r="D37" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>354</v>
+      <c r="E37" s="46">
+        <v>0.6</v>
+      </c>
+      <c r="F37" s="46">
+        <v>0.8</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>0</v>
       </c>
@@ -8312,18 +8099,18 @@
       <c r="D38" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E38" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>339</v>
+      <c r="E38" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="F38" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="G38" s="46">
+        <v>1.25</v>
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>0</v>
       </c>
@@ -8336,18 +8123,18 @@
       <c r="D39" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>335</v>
+      <c r="E39" s="46">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F39" s="46">
+        <v>1.25</v>
+      </c>
+      <c r="G39" s="46">
+        <v>1.5</v>
       </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>0</v>
       </c>
@@ -8360,18 +8147,18 @@
       <c r="D40" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>338</v>
+      <c r="E40" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="46">
+        <v>0.6</v>
+      </c>
+      <c r="G40" s="46">
+        <v>0.9</v>
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>0</v>
       </c>
@@ -8384,17 +8171,17 @@
       <c r="D41" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E41" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="F41" s="46">
+        <v>1.6</v>
+      </c>
+      <c r="G41" s="46">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>0</v>
       </c>
@@ -8407,17 +8194,17 @@
       <c r="D42" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E42" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>335</v>
+      <c r="E42" s="46">
+        <v>1.75</v>
+      </c>
+      <c r="F42" s="46">
+        <v>1.5</v>
       </c>
       <c r="G42" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>0</v>
       </c>
@@ -8430,17 +8217,17 @@
       <c r="D43" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E43" s="46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F43" s="46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G43" s="46">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>0</v>
       </c>
@@ -8454,12 +8241,12 @@
         <v>180</v>
       </c>
       <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
-        <v>334</v>
+      <c r="F44" s="46">
+        <v>1.1000000000000001</v>
       </c>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>0</v>
       </c>
@@ -8472,15 +8259,15 @@
       <c r="D45" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>349</v>
+      <c r="E45" s="46">
+        <v>0.6</v>
+      </c>
+      <c r="F45" s="46">
+        <v>0.96</v>
       </c>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>0</v>
       </c>
@@ -8496,14 +8283,14 @@
       <c r="E46" s="15">
         <v>1</v>
       </c>
-      <c r="F46" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F46" s="46">
+        <v>1.25</v>
+      </c>
+      <c r="G46" s="46">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>0</v>
       </c>
@@ -8516,17 +8303,17 @@
       <c r="D47" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E47" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="F47" s="22">
+      <c r="E47" s="46">
+        <v>1.8</v>
+      </c>
+      <c r="F47" s="21">
         <v>1884</v>
       </c>
-      <c r="G47" s="15" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G47" s="46">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>0</v>
       </c>
@@ -8542,15 +8329,15 @@
       <c r="E48" s="15">
         <v>1</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>335</v>
+      <c r="F48" s="46">
+        <v>1.25</v>
+      </c>
+      <c r="G48" s="46">
+        <v>1.5</v>
       </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>0</v>
       </c>
@@ -8564,44 +8351,44 @@
         <v>180</v>
       </c>
       <c r="E49" s="15"/>
-      <c r="F49" s="15" t="s">
-        <v>335</v>
+      <c r="F49" s="46">
+        <v>1.5</v>
       </c>
       <c r="G49" s="15"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="G59" s="1"/>
     </row>
@@ -8622,44 +8409,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -8667,7 +8454,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -8682,7 +8469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>65</v>
       </c>
@@ -8695,18 +8482,18 @@
       <c r="D4" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>368</v>
+      <c r="E4" s="46">
+        <v>0.34</v>
+      </c>
+      <c r="F4" s="46">
+        <v>0.34</v>
+      </c>
+      <c r="G4" s="46">
+        <v>0.34</v>
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
@@ -8719,19 +8506,19 @@
       <c r="D5" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>371</v>
+      <c r="E5" s="46">
+        <v>0.12</v>
+      </c>
+      <c r="F5" s="46">
+        <v>0.15</v>
+      </c>
+      <c r="G5" s="46">
+        <v>0.2</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
@@ -8744,19 +8531,19 @@
       <c r="D6" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>372</v>
+      <c r="E6" s="46">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="46">
+        <v>0.3</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
@@ -8769,17 +8556,17 @@
       <c r="D7" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>270</v>
+      <c r="E7" s="46">
+        <v>0.1</v>
       </c>
       <c r="F7" s="15"/>
-      <c r="G7" s="15" t="s">
-        <v>373</v>
+      <c r="G7" s="46">
+        <v>0.36</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -8792,17 +8579,17 @@
       <c r="D8" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>374</v>
+      <c r="E8" s="46">
+        <v>2.4E-2</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
-        <v>369</v>
+      <c r="G8" s="46">
+        <v>0.12</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
@@ -8815,18 +8602,18 @@
       <c r="D9" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>371</v>
+      <c r="E9" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="46">
+        <v>0.15</v>
+      </c>
+      <c r="G9" s="46">
+        <v>0.2</v>
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>0</v>
       </c>
@@ -8840,13 +8627,13 @@
         <v>160</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
-        <v>372</v>
+      <c r="F10" s="46">
+        <v>0.3</v>
       </c>
       <c r="G10" s="15"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>0</v>
       </c>
@@ -8859,18 +8646,18 @@
       <c r="D11" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>327</v>
+      <c r="E11" s="46">
+        <v>0.15</v>
+      </c>
+      <c r="F11" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="G11" s="46">
+        <v>0.25</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>0</v>
       </c>
@@ -8883,14 +8670,14 @@
       <c r="D12" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>375</v>
+      <c r="E12" s="46">
+        <v>0.128</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>0</v>
       </c>
@@ -8903,18 +8690,18 @@
       <c r="D13" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>370</v>
+      <c r="E13" s="46">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F13" s="46">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G13" s="46">
+        <v>0.15</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>0</v>
       </c>
@@ -8927,14 +8714,14 @@
       <c r="D14" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>370</v>
+      <c r="E14" s="46">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F14" s="46">
+        <v>0.12</v>
+      </c>
+      <c r="G14" s="46">
+        <v>0.15</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -8949,45 +8736,45 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:16" ht="46.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:16" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -8995,7 +8782,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -9010,7 +8797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
@@ -9023,17 +8810,17 @@
       <c r="D4" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E4" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="46">
+        <v>0.15</v>
+      </c>
+      <c r="G4" s="46">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
@@ -9046,17 +8833,17 @@
       <c r="D5" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E5" s="46">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="46">
+        <v>0.24</v>
+      </c>
+      <c r="G5" s="46">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
@@ -9069,15 +8856,15 @@
       <c r="D6" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>270</v>
+      <c r="E6" s="46">
+        <v>0.1</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="15" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="G6" s="46">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
@@ -9091,14 +8878,14 @@
         <v>159</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="F7" s="46">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -9111,17 +8898,17 @@
       <c r="D8" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E8" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="46">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
@@ -9134,15 +8921,15 @@
       <c r="D9" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>270</v>
+      <c r="E9" s="46">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F9" s="46">
+        <v>0.1</v>
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>0</v>
       </c>
@@ -9155,15 +8942,15 @@
       <c r="D10" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>370</v>
+      <c r="E10" s="46">
+        <v>0.12</v>
+      </c>
+      <c r="F10" s="46">
+        <v>0.15</v>
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>0</v>
       </c>
@@ -9176,19 +8963,19 @@
       <c r="D11" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>375</v>
+      <c r="E11" s="46">
+        <v>0.128</v>
       </c>
       <c r="F11" s="15"/>
-      <c r="G11" s="15" t="s">
-        <v>371</v>
+      <c r="G11" s="46">
+        <v>0.2</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>0</v>
       </c>
@@ -9201,17 +8988,17 @@
       <c r="D12" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>376</v>
+      <c r="E12" s="46">
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="15" t="s">
-        <v>370</v>
+      <c r="G12" s="46">
+        <v>0.15</v>
       </c>
       <c r="J12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>0</v>
       </c>
@@ -9224,21 +9011,21 @@
       <c r="D13" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>370</v>
+      <c r="E13" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="46">
+        <v>0.12</v>
+      </c>
+      <c r="G13" s="46">
+        <v>0.15</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -9248,25 +9035,25 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
@@ -9282,45 +9069,45 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -9328,7 +9115,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -9343,7 +9130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>65</v>
       </c>
@@ -9356,13 +9143,13 @@
       <c r="D4" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="15">
         <v>8</v>
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>65</v>
       </c>
@@ -9375,7 +9162,7 @@
       <c r="D5" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>4</v>
       </c>
       <c r="F5" s="15">
@@ -9385,7 +9172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>65</v>
       </c>
@@ -9398,7 +9185,7 @@
       <c r="D6" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>5</v>
       </c>
       <c r="F6" s="15">
@@ -9408,7 +9195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>65</v>
       </c>
@@ -9421,17 +9208,17 @@
       <c r="D7" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E7" s="47">
+        <v>3.5</v>
+      </c>
+      <c r="F7" s="46">
+        <v>8.75</v>
+      </c>
+      <c r="G7" s="46">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>65</v>
       </c>
@@ -9444,7 +9231,7 @@
       <c r="D8" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>4</v>
       </c>
       <c r="F8" s="15">
@@ -9454,7 +9241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>65</v>
       </c>
@@ -9467,17 +9254,17 @@
       <c r="D9" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E9" s="47">
+        <v>4.5</v>
+      </c>
+      <c r="F9" s="46">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G9" s="46">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>65</v>
       </c>
@@ -9490,7 +9277,7 @@
       <c r="D10" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>3</v>
       </c>
       <c r="F10" s="15">
@@ -9501,8 +9288,8 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -9523,8 +9310,8 @@
       <c r="G11" s="15"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -9547,8 +9334,8 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -9570,8 +9357,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -9591,8 +9378,8 @@
       </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -9616,8 +9403,8 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -9637,8 +9424,8 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -9650,8 +9437,8 @@
       <c r="D17" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>303</v>
+      <c r="E17" s="46">
+        <v>4.5</v>
       </c>
       <c r="F17" s="15">
         <v>6</v>
@@ -9662,8 +9449,8 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -9685,8 +9472,8 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -9710,7 +9497,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
@@ -9726,41 +9513,41 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Tabelle7"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="37.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -9768,7 +9555,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -9777,7 +9564,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
@@ -9790,11 +9577,11 @@
       <c r="D4" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" s="46">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
@@ -9807,11 +9594,11 @@
       <c r="D5" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="46">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
@@ -9824,11 +9611,11 @@
       <c r="D6" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" s="46">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
@@ -9841,11 +9628,11 @@
       <c r="D7" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" s="46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -9858,11 +9645,11 @@
       <c r="D8" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" s="46">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
@@ -9875,11 +9662,11 @@
       <c r="D9" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" s="46">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>0</v>
       </c>
@@ -9892,11 +9679,11 @@
       <c r="D10" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" s="46">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>0</v>
       </c>
@@ -9909,11 +9696,11 @@
       <c r="D11" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="46">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>0</v>
       </c>
@@ -9926,11 +9713,11 @@
       <c r="D12" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E12" s="46">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>0</v>
       </c>
@@ -9943,8 +9730,8 @@
       <c r="D13" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>354</v>
+      <c r="E13" s="46">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -9959,40 +9746,40 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Tabelle8"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-    </row>
-    <row r="2" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -10000,7 +9787,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -10009,7 +9796,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
@@ -10022,11 +9809,11 @@
       <c r="D4" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" s="46">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
@@ -10039,11 +9826,11 @@
       <c r="D5" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="46">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
@@ -10056,11 +9843,11 @@
       <c r="D6" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" s="46">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
@@ -10073,11 +9860,11 @@
       <c r="D7" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" s="46">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -10090,8 +9877,8 @@
       <c r="D8" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>353</v>
+      <c r="E8" s="46">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -10105,45 +9892,45 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Tabelle9"/>
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E17" sqref="E17:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -10151,7 +9938,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>156</v>
@@ -10166,109 +9953,109 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>44847</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>164</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="24" t="s">
-        <v>385</v>
+      <c r="F4" s="47">
+        <v>4.3</v>
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>44950</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>164</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="24" t="s">
-        <v>386</v>
+      <c r="F5" s="47">
+        <v>5.0999999999999996</v>
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>44979</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>164</v>
       </c>
       <c r="E6" s="15"/>
-      <c r="F6" s="24" t="s">
-        <v>387</v>
+      <c r="F6" s="47">
+        <v>8.5</v>
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>44993</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>164</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="24" t="s">
-        <v>325</v>
+      <c r="F7" s="47">
+        <v>3.2</v>
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>44993</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>164</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <v>2</v>
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>44968</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -10286,14 +10073,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>44971</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -10305,14 +10092,14 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>44975</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -10330,14 +10117,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>44983</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -10355,14 +10142,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>44955</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -10374,14 +10161,14 @@
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>44957</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -10396,14 +10183,14 @@
       </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>44964</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -10413,22 +10200,22 @@
         <f>9/(3)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>303</v>
+      <c r="F15" s="46">
+        <v>4.5</v>
       </c>
       <c r="G15" s="15">
         <f>18/(3)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="24">
         <v>44966</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -10440,60 +10227,60 @@
       </c>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="24">
         <v>44989</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E17" s="46">
+        <v>2.4</v>
+      </c>
+      <c r="F17" s="46">
+        <v>4.8</v>
+      </c>
+      <c r="G17" s="46">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="24">
         <v>44954</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>345</v>
+      <c r="E18" s="46">
+        <v>1.8</v>
       </c>
       <c r="F18" s="15">
         <v>3</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G18" s="46">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>44963</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -10511,22 +10298,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="24">
         <v>44847</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>164</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="27" t="s">
-        <v>394</v>
+      <c r="F20" s="46">
+        <v>8.3000000000000007</v>
       </c>
       <c r="G20" s="15"/>
     </row>
